--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kafkakhalis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BBCF9C7-D183-436A-8B3E-0C899D8E0A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E8EA5B-1A33-40B1-9D0D-C38FD638A1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="9870" yWindow="3195" windowWidth="9510" windowHeight="8325"/>
   </bookViews>
   <sheets>
-    <sheet name="Format Penggunaan (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="Format Penggunaan (16)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NO KWH</t>
   </si>
@@ -37,16 +37,13 @@
     <t>Meter akhir</t>
   </si>
   <si>
-    <t>207814815627</t>
+    <t>153080865244</t>
   </si>
   <si>
-    <t>Jl.Menjangan III No. 5 RT.01 RW.03 Ciputat Ciputat</t>
+    <t>Jl.Musyawarah Ciputat Ciputat, Ciputat, Banten</t>
   </si>
   <si>
-    <t>329810457570</t>
-  </si>
-  <si>
-    <t>Maret</t>
+    <t>February</t>
   </si>
 </sst>
 </file>
@@ -59,6 +56,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,6 +64,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,6 +72,7 @@
       <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -81,6 +81,7 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,6 +90,7 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,6 +99,7 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,6 +107,7 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,6 +115,7 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +123,7 @@
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +131,7 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,6 +140,7 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,6 +149,7 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +157,7 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +166,7 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,6 +174,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +183,7 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,6 +192,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +200,7 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -911,19 +926,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="89" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -951,30 +966,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>2020</v>
       </c>
       <c r="E2" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
